--- a/Datasets/RawDatasets/Tassi di cambio.xlsx
+++ b/Datasets/RawDatasets/Tassi di cambio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoa\Desktop\AA 1920\Esercitazioni 19-20\SCG_Info\Progetto Analisi degli scostamenti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcovinciguerra/Github/SCGProject/Datasets/RawDatasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73191B1-B7B7-476E-AC4E-97170C8EB3D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8723BB-6819-B641-9B27-B0AFDCA71452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tassi di cambio" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
-    <t>Codice valuta</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -43,9 +40,6 @@
   </si>
   <si>
     <t>Anno</t>
-  </si>
-  <si>
-    <t>Tasso di cambio medio</t>
   </si>
   <si>
     <t>1,0541</t>
@@ -61,6 +55,12 @@
   </si>
   <si>
     <t>CONSUNTIVO</t>
+  </si>
+  <si>
+    <t>TassoDiCambioMedio</t>
+  </si>
+  <si>
+    <t>CodiceValuta</t>
   </si>
 </sst>
 </file>
@@ -457,559 +457,559 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="7">
         <v>123.4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="B7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="2"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="2"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="2"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>

--- a/Datasets/RawDatasets/Tassi di cambio.xlsx
+++ b/Datasets/RawDatasets/Tassi di cambio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcovinciguerra/Github/SCGProject/Datasets/RawDatasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8723BB-6819-B641-9B27-B0AFDCA71452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B91B80D-9E99-A74C-BD40-078EBDC2D51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>1</t>
   </si>
@@ -40,15 +40,6 @@
   </si>
   <si>
     <t>Anno</t>
-  </si>
-  <si>
-    <t>1,0541</t>
-  </si>
-  <si>
-    <t>1,1993</t>
-  </si>
-  <si>
-    <t>135,01</t>
   </si>
   <si>
     <t>BUDGET</t>
@@ -118,7 +109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -135,7 +126,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -457,7 +451,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -469,13 +463,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -483,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -494,10 +488,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8" t="s">
         <v>4</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1.0541</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -505,7 +499,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="7">
         <v>123.4</v>
@@ -516,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -527,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7" t="s">
         <v>5</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1.1993</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -538,10 +532,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>135.01</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">

--- a/Datasets/RawDatasets/Tassi di cambio.xlsx
+++ b/Datasets/RawDatasets/Tassi di cambio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcovinciguerra/Github/SCGProject/Datasets/RawDatasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoa\Desktop\AA 1920\Esercitazioni 19-20\SCG_Info\Progetto Analisi degli scostamenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B91B80D-9E99-A74C-BD40-078EBDC2D51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73191B1-B7B7-476E-AC4E-97170C8EB3D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tassi di cambio" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+  <si>
+    <t>Codice valuta</t>
+  </si>
   <si>
     <t>1</t>
   </si>
@@ -42,16 +45,22 @@
     <t>Anno</t>
   </si>
   <si>
+    <t>Tasso di cambio medio</t>
+  </si>
+  <si>
+    <t>1,0541</t>
+  </si>
+  <si>
+    <t>1,1993</t>
+  </si>
+  <si>
+    <t>135,01</t>
+  </si>
+  <si>
     <t>BUDGET</t>
   </si>
   <si>
     <t>CONSUNTIVO</t>
-  </si>
-  <si>
-    <t>TassoDiCambioMedio</t>
-  </si>
-  <si>
-    <t>CodiceValuta</t>
   </si>
 </sst>
 </file>
@@ -109,7 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -126,10 +135,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -451,559 +457,559 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1.0541</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" s="7">
         <v>123.4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1.1993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="9">
-        <v>135.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="2"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="2"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="2"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
